--- a/musicshare/接口对应关系.xlsx
+++ b/musicshare/接口对应关系.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>首页</t>
   </si>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>Hosthatch</t>
+  </si>
+  <si>
+    <t>alist-hh.838383.xyz/d/musicfile/</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>Tebi.io</t>
+  </si>
+  <si>
+    <t>yun.838383.xyz/d/tebi</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>oracle-chuncheon</t>
+  </si>
+  <si>
+    <t>yun.838383.xyz/d/oracle</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1306,6 +1348,64 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
